--- a/BM theo doi tai san (FILE TONG HOP) -ver2.xlsx
+++ b/BM theo doi tai san (FILE TONG HOP) -ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chi tiết" sheetId="1" r:id="rId1"/>
@@ -1833,80 +1833,80 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3764,10 +3764,10 @@
       <c r="A60" s="30">
         <v>192</v>
       </c>
-      <c r="B60" s="199" t="s">
+      <c r="B60" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="199"/>
+      <c r="C60" s="185"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31">
@@ -3787,10 +3787,10 @@
       <c r="A61" s="30">
         <v>192</v>
       </c>
-      <c r="B61" s="199" t="s">
+      <c r="B61" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="199"/>
+      <c r="C61" s="185"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31">
@@ -3810,10 +3810,10 @@
       <c r="A62" s="30">
         <v>192</v>
       </c>
-      <c r="B62" s="199" t="s">
+      <c r="B62" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="199"/>
+      <c r="C62" s="185"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31">
@@ -8433,10 +8433,10 @@
       <c r="A263" s="14">
         <v>531</v>
       </c>
-      <c r="B263" s="185" t="s">
+      <c r="B263" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C263" s="185"/>
+      <c r="C263" s="199"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="14">
@@ -8459,222 +8459,30 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="264">
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -8699,30 +8507,222 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8737,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8815,10 +8815,10 @@
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="209"/>
+      <c r="C5" s="201"/>
       <c r="D5" s="15" t="s">
         <v>234</v>
       </c>
@@ -8843,10 +8843,10 @@
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="207"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="16" t="s">
         <v>117</v>
       </c>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="207"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="16" t="s">
         <v>119</v>
       </c>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="207"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="16" t="s">
         <v>118</v>
       </c>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="207"/>
+      <c r="C9" s="202"/>
       <c r="D9" s="16" t="s">
         <v>120</v>
       </c>
@@ -8927,10 +8927,10 @@
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="207"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="16" t="s">
         <v>122</v>
       </c>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="207"/>
+      <c r="C11" s="202"/>
       <c r="D11" s="16" t="s">
         <v>121</v>
       </c>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="12" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="16" t="s">
         <v>130</v>
       </c>
@@ -8990,10 +8990,10 @@
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="202" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="16" t="s">
         <v>131</v>
       </c>
@@ -9011,10 +9011,10 @@
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="207" t="s">
+      <c r="B14" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="207"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="16" t="s">
         <v>132</v>
       </c>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="207"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="16" t="s">
         <v>133</v>
       </c>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="207"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="16" t="s">
         <v>138</v>
       </c>
@@ -9072,10 +9072,10 @@
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="207"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="16" t="s">
         <v>142</v>
       </c>
@@ -9091,10 +9091,10 @@
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="207"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="16" t="s">
         <v>116</v>
       </c>
@@ -9110,10 +9110,10 @@
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="207"/>
+      <c r="C19" s="202"/>
       <c r="D19" s="16" t="s">
         <v>115</v>
       </c>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="207" t="s">
+      <c r="B20" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="207"/>
+      <c r="C20" s="202"/>
       <c r="D20" s="16" t="s">
         <v>134</v>
       </c>
@@ -9148,10 +9148,10 @@
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="207"/>
+      <c r="C21" s="202"/>
       <c r="D21" s="16" t="s">
         <v>139</v>
       </c>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="207"/>
+      <c r="C22" s="202"/>
       <c r="D22" s="16" t="s">
         <v>123</v>
       </c>
@@ -9186,10 +9186,10 @@
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="207" t="s">
+      <c r="B23" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="207"/>
+      <c r="C23" s="202"/>
       <c r="D23" s="16" t="s">
         <v>124</v>
       </c>
@@ -9207,10 +9207,10 @@
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="207"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="16" t="s">
         <v>125</v>
       </c>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="207" t="s">
+      <c r="B25" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="207"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="16" t="s">
         <v>126</v>
       </c>
@@ -9245,10 +9245,10 @@
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="207" t="s">
+      <c r="B26" s="202" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="207"/>
+      <c r="C26" s="202"/>
       <c r="D26" s="16" t="s">
         <v>127</v>
       </c>
@@ -9266,10 +9266,10 @@
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="207"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="16" t="s">
         <v>128</v>
       </c>
@@ -9285,10 +9285,10 @@
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="207" t="s">
+      <c r="B28" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="207"/>
+      <c r="C28" s="202"/>
       <c r="D28" s="16" t="s">
         <v>129</v>
       </c>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="207"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="16" t="s">
         <v>154</v>
       </c>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="203" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="201"/>
+      <c r="C30" s="203"/>
       <c r="D30" s="16" t="s">
         <v>195</v>
       </c>
@@ -9346,10 +9346,10 @@
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="207"/>
+      <c r="C31" s="202"/>
       <c r="D31" s="16" t="s">
         <v>140</v>
       </c>
@@ -9367,10 +9367,10 @@
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="201" t="s">
+      <c r="B32" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="201"/>
+      <c r="C32" s="203"/>
       <c r="D32" s="16" t="s">
         <v>141</v>
       </c>
@@ -9388,10 +9388,10 @@
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="201" t="s">
+      <c r="B33" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="201"/>
+      <c r="C33" s="203"/>
       <c r="D33" s="16" t="s">
         <v>160</v>
       </c>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="201" t="s">
+      <c r="B34" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="201"/>
+      <c r="C34" s="203"/>
       <c r="D34" s="16" t="s">
         <v>157</v>
       </c>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="201" t="s">
+      <c r="B35" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="201"/>
+      <c r="C35" s="203"/>
       <c r="D35" s="16" t="s">
         <v>135</v>
       </c>
@@ -9451,10 +9451,10 @@
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="201"/>
+      <c r="C36" s="203"/>
       <c r="D36" s="16" t="s">
         <v>156</v>
       </c>
@@ -9470,10 +9470,10 @@
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="201" t="s">
+      <c r="B37" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="201"/>
+      <c r="C37" s="203"/>
       <c r="D37" s="16" t="s">
         <v>200</v>
       </c>
@@ -9491,10 +9491,10 @@
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="201" t="s">
+      <c r="B38" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="201"/>
+      <c r="C38" s="203"/>
       <c r="D38" s="16" t="s">
         <v>151</v>
       </c>
@@ -9510,10 +9510,10 @@
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="201" t="s">
+      <c r="B39" s="203" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="201"/>
+      <c r="C39" s="203"/>
       <c r="D39" s="16" t="s">
         <v>232</v>
       </c>
@@ -9529,10 +9529,10 @@
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="201" t="s">
+      <c r="B40" s="203" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="201"/>
+      <c r="C40" s="203"/>
       <c r="D40" s="16" t="s">
         <v>137</v>
       </c>
@@ -9548,10 +9548,10 @@
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="207" t="s">
+      <c r="B41" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="207"/>
+      <c r="C41" s="202"/>
       <c r="D41" s="16" t="s">
         <v>196</v>
       </c>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="201" t="s">
+      <c r="B42" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="201"/>
+      <c r="C42" s="203"/>
       <c r="D42" s="16" t="s">
         <v>161</v>
       </c>
@@ -9588,10 +9588,10 @@
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="201" t="s">
+      <c r="B43" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="201"/>
+      <c r="C43" s="203"/>
       <c r="D43" s="16" t="s">
         <v>190</v>
       </c>
@@ -9609,10 +9609,10 @@
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="201" t="s">
+      <c r="B44" s="203" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="201"/>
+      <c r="C44" s="203"/>
       <c r="D44" s="16" t="s">
         <v>191</v>
       </c>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="201" t="s">
+      <c r="B45" s="203" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="201"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="16" t="s">
         <v>192</v>
       </c>
@@ -9651,10 +9651,10 @@
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="207" t="s">
+      <c r="B46" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="207"/>
+      <c r="C46" s="202"/>
       <c r="D46" s="16" t="s">
         <v>193</v>
       </c>
@@ -9672,10 +9672,10 @@
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="201" t="s">
+      <c r="B47" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="201"/>
+      <c r="C47" s="203"/>
       <c r="D47" s="16" t="s">
         <v>136</v>
       </c>
@@ -9691,10 +9691,10 @@
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="201" t="s">
+      <c r="B48" s="203" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="201"/>
+      <c r="C48" s="203"/>
       <c r="D48" s="16" t="s">
         <v>194</v>
       </c>
@@ -9712,10 +9712,10 @@
     </row>
     <row r="49" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="201" t="s">
+      <c r="B49" s="203" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="201"/>
+      <c r="C49" s="203"/>
       <c r="D49" s="16" t="s">
         <v>143</v>
       </c>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="50" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="201" t="s">
+      <c r="B50" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="201"/>
+      <c r="C50" s="203"/>
       <c r="D50" s="16" t="s">
         <v>144</v>
       </c>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="51" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="201" t="s">
+      <c r="B51" s="203" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="201"/>
+      <c r="C51" s="203"/>
       <c r="D51" s="16" t="s">
         <v>145</v>
       </c>
@@ -9769,10 +9769,10 @@
     </row>
     <row r="52" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="201" t="s">
+      <c r="B52" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="201"/>
+      <c r="C52" s="203"/>
       <c r="D52" s="16" t="s">
         <v>150</v>
       </c>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="53" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="201" t="s">
+      <c r="B53" s="203" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="201"/>
+      <c r="C53" s="203"/>
       <c r="D53" s="16" t="s">
         <v>212</v>
       </c>
@@ -9807,10 +9807,10 @@
     </row>
     <row r="54" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="201" t="s">
+      <c r="B54" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="201"/>
+      <c r="C54" s="203"/>
       <c r="D54" s="16" t="s">
         <v>146</v>
       </c>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="55" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="201" t="s">
+      <c r="B55" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="201"/>
+      <c r="C55" s="203"/>
       <c r="D55" s="16" t="s">
         <v>147</v>
       </c>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="56" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="201" t="s">
+      <c r="B56" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="201"/>
+      <c r="C56" s="203"/>
       <c r="D56" s="16" t="s">
         <v>148</v>
       </c>
@@ -9864,10 +9864,10 @@
     </row>
     <row r="57" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="201" t="s">
+      <c r="B57" s="203" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="201"/>
+      <c r="C57" s="203"/>
       <c r="D57" s="16" t="s">
         <v>216</v>
       </c>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="58" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="202" t="s">
+      <c r="B58" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="203"/>
+      <c r="C58" s="209"/>
       <c r="D58" s="16" t="s">
         <v>149</v>
       </c>
@@ -9904,10 +9904,10 @@
     </row>
     <row r="59" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="201" t="s">
+      <c r="B59" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="201"/>
+      <c r="C59" s="203"/>
       <c r="D59" s="16" t="s">
         <v>213</v>
       </c>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="60" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="201" t="s">
+      <c r="B60" s="203" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="201"/>
+      <c r="C60" s="203"/>
       <c r="D60" s="16" t="s">
         <v>219</v>
       </c>
@@ -9944,10 +9944,10 @@
     </row>
     <row r="61" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="203" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="201"/>
+      <c r="C61" s="203"/>
       <c r="D61" s="16" t="s">
         <v>158</v>
       </c>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="62" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="201" t="s">
+      <c r="B62" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="201"/>
+      <c r="C62" s="203"/>
       <c r="D62" s="16" t="s">
         <v>159</v>
       </c>
@@ -9982,10 +9982,10 @@
     </row>
     <row r="63" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="201" t="s">
+      <c r="B63" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="201"/>
+      <c r="C63" s="203"/>
       <c r="D63" s="16" t="s">
         <v>220</v>
       </c>
@@ -10001,10 +10001,10 @@
     </row>
     <row r="64" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="201" t="s">
+      <c r="B64" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="201"/>
+      <c r="C64" s="203"/>
       <c r="D64" s="16" t="s">
         <v>221</v>
       </c>
@@ -10020,10 +10020,10 @@
     </row>
     <row r="65" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="201" t="s">
+      <c r="B65" s="203" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="201"/>
+      <c r="C65" s="203"/>
       <c r="D65" s="16" t="s">
         <v>222</v>
       </c>
@@ -10039,10 +10039,10 @@
     </row>
     <row r="66" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="201" t="s">
+      <c r="B66" s="203" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="201"/>
+      <c r="C66" s="203"/>
       <c r="D66" s="16" t="s">
         <v>224</v>
       </c>
@@ -10058,10 +10058,10 @@
     </row>
     <row r="67" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="201" t="s">
+      <c r="B67" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="201"/>
+      <c r="C67" s="203"/>
       <c r="D67" s="16" t="s">
         <v>225</v>
       </c>
@@ -10077,10 +10077,10 @@
     </row>
     <row r="68" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="201" t="s">
+      <c r="B68" s="203" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="201"/>
+      <c r="C68" s="203"/>
       <c r="D68" s="16" t="s">
         <v>226</v>
       </c>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="69" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="201" t="s">
+      <c r="B69" s="203" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="201"/>
+      <c r="C69" s="203"/>
       <c r="D69" s="16" t="s">
         <v>230</v>
       </c>
@@ -10115,10 +10115,10 @@
     </row>
     <row r="70" spans="1:10" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
-      <c r="B70" s="200" t="s">
+      <c r="B70" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="200"/>
+      <c r="C70" s="207"/>
       <c r="D70" s="20" t="s">
         <v>228</v>
       </c>
@@ -10134,30 +10134,37 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
@@ -10174,37 +10181,30 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10222,8 +10222,8 @@
   </sheetPr>
   <dimension ref="A1:M252"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A133" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A202" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -15749,10 +15749,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="207"/>
+      <c r="C1" s="202"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3">
@@ -15765,10 +15765,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="207"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="207"/>
+      <c r="C3" s="202"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -15795,10 +15795,10 @@
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -15841,10 +15841,10 @@
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="207"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
@@ -15857,10 +15857,10 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="207"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -15873,10 +15873,10 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="207"/>
+      <c r="C9" s="202"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
@@ -15889,10 +15889,10 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="207"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -15903,10 +15903,10 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="207"/>
+      <c r="C11" s="202"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -15917,10 +15917,10 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -15931,10 +15931,10 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -15945,10 +15945,10 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="207" t="s">
+      <c r="B14" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="207"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="207"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -15973,10 +15973,10 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="207"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -15987,10 +15987,10 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="207"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -16001,10 +16001,10 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="207"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -16015,6 +16015,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -16023,16 +16033,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16043,7 +16043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/BM theo doi tai san (FILE TONG HOP) -ver2.xlsx
+++ b/BM theo doi tai san (FILE TONG HOP) -ver2.xlsx
@@ -10222,8 +10222,8 @@
   </sheetPr>
   <dimension ref="A1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A202" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
